--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sost-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sost-Lrp6.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N2">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q2">
-        <v>0.5502129557040001</v>
+        <v>0.7370549019300001</v>
       </c>
       <c r="R2">
-        <v>4.951916601336</v>
+        <v>6.633494117370001</v>
       </c>
       <c r="S2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="T2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q3">
         <v>1.967347263176</v>
@@ -635,10 +635,10 @@
         <v>17.706125368584</v>
       </c>
       <c r="S3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="T3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N4">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q4">
-        <v>1.002831906008</v>
+        <v>1.120589441004</v>
       </c>
       <c r="R4">
-        <v>9.025487154072001</v>
+        <v>10.085304969036</v>
       </c>
       <c r="S4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="T4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N5">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q5">
-        <v>0.64443961828</v>
+        <v>1.289838298726</v>
       </c>
       <c r="R5">
-        <v>5.79995656452</v>
+        <v>11.608544688534</v>
       </c>
       <c r="S5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="T5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
     </row>
   </sheetData>
